--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_T45.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06954535749915088</v>
+        <v>0.003490139936268095</v>
       </c>
       <c r="C2">
-        <v>1.531238565341724</v>
+        <v>1.531511157193467</v>
       </c>
       <c r="D2">
-        <v>8.860854243822507</v>
+        <v>8.565501471244708</v>
       </c>
       <c r="E2">
-        <v>2.976718704181251</v>
+        <v>2.92668779873165</v>
       </c>
       <c r="F2">
-        <v>3.0493964273978</v>
+        <v>2.995558334026711</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1821583924968521</v>
+        <v>0.6398258273924486</v>
       </c>
       <c r="C3">
-        <v>1.861502625199666</v>
+        <v>2.239201287109414</v>
       </c>
       <c r="D3">
-        <v>16.2058853290794</v>
+        <v>20.00114161260279</v>
       </c>
       <c r="E3">
-        <v>4.025653403992872</v>
+        <v>4.472263589347434</v>
       </c>
       <c r="F3">
-        <v>4.126002736065931</v>
+        <v>4.535565317506141</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.561385897212732</v>
+        <v>-0.9476928289197512</v>
       </c>
       <c r="C4">
-        <v>1.073636804844984</v>
+        <v>1.43433119117039</v>
       </c>
       <c r="D4">
-        <v>4.866760532415363</v>
+        <v>8.057575648683578</v>
       </c>
       <c r="E4">
-        <v>2.206073555531493</v>
+        <v>2.838586910539041</v>
       </c>
       <c r="F4">
-        <v>2.191910908186613</v>
+        <v>2.745226277836465</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08537399005231108</v>
+        <v>0.07920638781101008</v>
       </c>
       <c r="C5">
-        <v>0.5241673485692564</v>
+        <v>0.4982538277252117</v>
       </c>
       <c r="D5">
-        <v>0.5295860033822424</v>
+        <v>0.5017663139879305</v>
       </c>
       <c r="E5">
-        <v>0.7277265993367581</v>
+        <v>0.7083546526902541</v>
       </c>
       <c r="F5">
-        <v>0.743653585295411</v>
+        <v>0.7232012390998245</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02988331820682798</v>
+        <v>0.1290760995305954</v>
       </c>
       <c r="C6">
-        <v>0.7999489406617019</v>
+        <v>0.8563602985157541</v>
       </c>
       <c r="D6">
-        <v>1.798353428251977</v>
+        <v>1.881528676774901</v>
       </c>
       <c r="E6">
-        <v>1.341027005042023</v>
+        <v>1.371688257868712</v>
       </c>
       <c r="F6">
-        <v>1.381955748754816</v>
+        <v>1.405192569417563</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01231922423332862</v>
+        <v>-0.09004136209350076</v>
       </c>
       <c r="C7">
-        <v>0.6554557325611711</v>
+        <v>0.6953463111079407</v>
       </c>
       <c r="D7">
-        <v>1.362335390436342</v>
+        <v>1.386814316799254</v>
       </c>
       <c r="E7">
-        <v>1.16719123987303</v>
+        <v>1.177630806661941</v>
       </c>
       <c r="F7">
-        <v>1.20540278287412</v>
+        <v>1.210320639037886</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1817607112461493</v>
+        <v>0.06201971816703138</v>
       </c>
       <c r="C8">
-        <v>0.3846993253635347</v>
+        <v>0.466676316002007</v>
       </c>
       <c r="D8">
-        <v>0.233928132797971</v>
+        <v>0.3920755529071259</v>
       </c>
       <c r="E8">
-        <v>0.4836611756157104</v>
+        <v>0.6261593670201907</v>
       </c>
       <c r="F8">
-        <v>0.4651283092647834</v>
+        <v>0.6449494228223369</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
